--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agt-Lrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Agt-Lrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,10 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Agt</t>
@@ -449,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,43 +516,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.8072116666666668</v>
+      </c>
+      <c r="H2">
+        <v>2.421635</v>
+      </c>
+      <c r="I2">
+        <v>0.7485686721305167</v>
+      </c>
+      <c r="J2">
+        <v>0.8170456278433896</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.257198</v>
-      </c>
-      <c r="H2">
-        <v>0.514396</v>
-      </c>
-      <c r="I2">
-        <v>0.1969864112529235</v>
-      </c>
-      <c r="J2">
-        <v>0.1476779584913764</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N2">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.003891534339</v>
+        <v>0.02640227919333334</v>
       </c>
       <c r="R2">
-        <v>0.015566137356</v>
+        <v>0.15841367516</v>
       </c>
       <c r="S2">
-        <v>0.1969864112529235</v>
+        <v>0.7485686721305167</v>
       </c>
       <c r="T2">
-        <v>0.1476779584913764</v>
+        <v>0.8170456278433896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,43 +578,43 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8072116666666668</v>
+        <v>0.2711285</v>
       </c>
       <c r="H3">
-        <v>2.421635</v>
+        <v>0.542257</v>
       </c>
       <c r="I3">
-        <v>0.6182385918170351</v>
+        <v>0.2514313278694834</v>
       </c>
       <c r="J3">
-        <v>0.6952272432352978</v>
+        <v>0.1829543721566103</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0151305</v>
+        <v>0.032708</v>
       </c>
       <c r="N3">
-        <v>0.030261</v>
+        <v>0.065416</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,140 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.0122135161225</v>
+        <v>0.008868070978000001</v>
       </c>
       <c r="R3">
-        <v>0.07328109673500001</v>
+        <v>0.035472283912</v>
       </c>
       <c r="S3">
-        <v>0.6182385918170351</v>
+        <v>0.2514313278694834</v>
       </c>
       <c r="T3">
-        <v>0.6952272432352978</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.176565</v>
-      </c>
-      <c r="H4">
-        <v>0.35313</v>
-      </c>
-      <c r="I4">
-        <v>0.1352300783943593</v>
-      </c>
-      <c r="J4">
-        <v>0.1013800991494097</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.5</v>
-      </c>
-      <c r="M4">
-        <v>0.0151305</v>
-      </c>
-      <c r="N4">
-        <v>0.030261</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.0026715167325</v>
-      </c>
-      <c r="R4">
-        <v>0.01068606693</v>
-      </c>
-      <c r="S4">
-        <v>0.1352300783943593</v>
-      </c>
-      <c r="T4">
-        <v>0.1013800991494097</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.06468900000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.194067</v>
-      </c>
-      <c r="I5">
-        <v>0.04954491853568211</v>
-      </c>
-      <c r="J5">
-        <v>0.05571469912391609</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.5</v>
-      </c>
-      <c r="M5">
-        <v>0.0151305</v>
-      </c>
-      <c r="N5">
-        <v>0.030261</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.0009787769145000002</v>
-      </c>
-      <c r="R5">
-        <v>0.005872661487000001</v>
-      </c>
-      <c r="S5">
-        <v>0.04954491853568211</v>
-      </c>
-      <c r="T5">
-        <v>0.05571469912391609</v>
+        <v>0.1829543721566103</v>
       </c>
     </row>
   </sheetData>
